--- a/data/trans_dic/IP13_R1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R1_2023-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,64</t>
+          <t>1,02; 9,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,39</t>
+          <t>0,69; 5,76</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,25</t>
+          <t>0,78; 4,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,61</t>
+          <t>0,31; 4,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,07</t>
+          <t>0,77; 3,24</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,04</t>
+          <t>0,94; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,74</t>
+          <t>0,42; 3,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,37</t>
+          <t>0,97; 3,43</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,64</t>
+          <t>0,29; 2,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,66</t>
+          <t>0,53; 3,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,5</t>
+          <t>0,7; 2,59</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,69</t>
+          <t>0,89; 2,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,71</t>
+          <t>0,94; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,33</t>
+          <t>1,13; 2,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP13_R1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R1_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,35; 10,53</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,64</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 9,43</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,76</t>
+          <t>0,54; 5,18</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,23</t>
+          <t>0,31; 3,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,09</t>
+          <t>0,7; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,24</t>
+          <t>0,76; 3,13</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,82</t>
+          <t>0,43; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,81</t>
+          <t>0,81; 5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,43</t>
+          <t>0,96; 3,45</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,59</t>
+          <t>0,46; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,44</t>
+          <t>0,29; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,59</t>
+          <t>0,52; 2,39</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,65</t>
+          <t>0,93; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,69</t>
+          <t>0,87; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,27</t>
+          <t>1,07; 2,26</t>
         </is>
       </c>
     </row>
